--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487042.9233247664</v>
+        <v>485155.3418083646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>204.3090285662152</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>121.0633651463834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>197.5924697752172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.7956238329215</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>345.4739914040758</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.461970681989442</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.0167291702127</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.9514856512191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>149.6058004679902</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.0181681025917</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70678535262252</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>2.496989041814572</v>
       </c>
       <c r="W13" t="n">
-        <v>179.4514485370818</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>188.9594513355739</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>41.26528959397418</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185871</v>
       </c>
     </row>
     <row r="20">
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.77945773664949</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>116.6256434942819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>146.1981785784021</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>143.3158222056518</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9700322506494</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>45.40012322653666</v>
       </c>
       <c r="E31" t="n">
-        <v>36.60092856329054</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1725.724578248621</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>1356.76206130821</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D2" t="n">
-        <v>998.4963627014592</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E2" t="n">
-        <v>998.4963627014592</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F2" t="n">
-        <v>587.5104579118517</v>
+        <v>594.1930173427669</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>2112.324418312743</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.5406308981343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>528.5406308981343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>528.5406308981343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.5406308981343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4556,22 +4556,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,34 +4580,34 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1234.414647675914</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
         <v>1234.414647675914</v>
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2092.477155601806</v>
+        <v>1778.063616086467</v>
       </c>
       <c r="C8" t="n">
-        <v>2092.477155601806</v>
+        <v>1778.063616086467</v>
       </c>
       <c r="D8" t="n">
-        <v>1734.211456995055</v>
+        <v>1419.797917479716</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1034.009664881472</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>623.0237600918647</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>205.0599519900516</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1778.063616086467</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>490.6129053604687</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>490.6129053604687</v>
+        <v>257.1154545468207</v>
       </c>
       <c r="U10" t="n">
-        <v>490.6129053604687</v>
+        <v>257.1154545468207</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545818</v>
+        <v>257.1154545468207</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5127,16 +5127,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W13" t="n">
-        <v>839.1822777101256</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1927268121083</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.4001476685781</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2484.468242641993</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1108.128127811259</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1108.128127811259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1033.528734561976</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1033.528734561976</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.528734561976</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>805.539183663959</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5759,16 +5759,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>531.1091870201128</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>413.3055067228584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.3055067228584</v>
+        <v>157.6003821033661</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.0436439308535</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C25" t="n">
-        <v>527.0436439308535</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>816.4608139678141</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>816.4608139678141</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>527.0436439308535</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>527.0436439308535</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.0436439308535</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,25 +6212,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.198248099061</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>761.5137598931742</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336715</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163781</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698419</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388769</v>
+        <v>280.4984019778477</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264622</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,19 +6622,19 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
         <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.451743365247</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,37 +7072,37 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7120,13 +7120,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010319</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,22 +7160,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>39.88923345256779</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>295.3773510571272</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>242.9997743936051</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>249.6406542820134</v>
       </c>
       <c r="W13" t="n">
-        <v>107.0715497995092</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>97.27790106300344</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>244.9720628046032</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.2331835502361</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4673633619783</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>109.0840118947553</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>140.0391738201752</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51615797628553</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>6.267320147927933</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.0120931631186</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472158</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
+        <v>332374.7007770526</v>
+      </c>
+      <c r="F2" t="n">
         <v>332374.7007770523</v>
       </c>
-      <c r="F2" t="n">
-        <v>332374.7007770526</v>
-      </c>
       <c r="G2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="H2" t="n">
         <v>332374.7007770525</v>
@@ -26335,7 +26335,7 @@
         <v>332374.7007770524</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="K2" t="n">
         <v>345798.8167434798</v>
@@ -26344,16 +26344,16 @@
         <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="N2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="N2" t="n">
-        <v>348942.7521923203</v>
-      </c>
       <c r="O2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26424,10 +26424,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.66962143913</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,16 +26482,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480659.1633368563</v>
+        <v>-480659.1633368559</v>
       </c>
       <c r="C6" t="n">
         <v>109308.7158776885</v>
       </c>
       <c r="D6" t="n">
-        <v>109308.7158776883</v>
+        <v>109308.7158776884</v>
       </c>
       <c r="E6" t="n">
-        <v>-299818.3312699996</v>
+        <v>-299915.7903959715</v>
       </c>
       <c r="F6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809243</v>
       </c>
       <c r="G6" t="n">
-        <v>225341.7052068969</v>
+        <v>225244.2460809244</v>
       </c>
       <c r="H6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809246</v>
       </c>
       <c r="I6" t="n">
-        <v>225341.7052068967</v>
+        <v>225244.2460809245</v>
       </c>
       <c r="J6" t="n">
-        <v>48918.48601430397</v>
+        <v>48821.02688833153</v>
       </c>
       <c r="K6" t="n">
-        <v>171797.7107747757</v>
+        <v>171779.2170368413</v>
       </c>
       <c r="L6" t="n">
-        <v>203420.2827086684</v>
+        <v>203420.2827086685</v>
       </c>
       <c r="M6" t="n">
-        <v>78962.17427569836</v>
+        <v>78962.17427569813</v>
       </c>
       <c r="N6" t="n">
-        <v>213763.1895095354</v>
+        <v>213763.1895095355</v>
       </c>
       <c r="O6" t="n">
         <v>213763.1895095355</v>
       </c>
       <c r="P6" t="n">
-        <v>169600.5842066899</v>
+        <v>169600.5842066898</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,25 +26750,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.4751414545798</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>30.86795109847783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>88.93052856137385</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.95663463721343</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>24.25710927439326</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361527</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.97888442104272</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>174.3169722963669</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>6.127370847427159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8162129839685</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>140.5103663981263</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>556.8688383914607</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>350.313610503034</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131515</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440714</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
